--- a/SANER2019/DataAnalysis/Book1 (version 1).xlsb.xlsx
+++ b/SANER2019/DataAnalysis/Book1 (version 1).xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mukta\Workspace-2018\QueryReformulation\SANER2019\DataAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E325412-5FBB-45D5-9E76-5982DF6E30BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD1C61F-76A8-4151-8696-9E353856A342}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="72" windowWidth="19140" windowHeight="9528" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="96" yWindow="72" windowWidth="19140" windowHeight="9528" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId4"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>MRR</t>
   </si>
@@ -105,12 +107,15 @@
   <si>
     <t>r + S +A</t>
   </si>
+  <si>
+    <t>Relicatec LSI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +129,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,9 +158,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5155,7 +5169,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>VSM</c:v>
+            <c:v>Replicated Basic VSM</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -5176,34 +5190,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23.67</c:v>
+                  <c:v>23.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.62</c:v>
+                  <c:v>22.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.78</c:v>
+                  <c:v>27.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.52</c:v>
+                  <c:v>25.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.33</c:v>
+                  <c:v>22.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>25.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.82</c:v>
+                  <c:v>22.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.79</c:v>
+                  <c:v>18.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.13</c:v>
+                  <c:v>23.76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.03</c:v>
+                  <c:v>21.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5219,7 +5233,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>VSM+Association</c:v>
+            <c:v>BLuAMIR</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -5240,34 +5254,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>28.4</c:v>
+                  <c:v>26.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.63</c:v>
+                  <c:v>26.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.12</c:v>
+                  <c:v>30.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.42</c:v>
+                  <c:v>30.94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.73</c:v>
+                  <c:v>24.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.13</c:v>
+                  <c:v>24.76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.43</c:v>
+                  <c:v>28.01</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.64</c:v>
+                  <c:v>21.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.13</c:v>
+                  <c:v>25.41</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24.62</c:v>
+                  <c:v>26.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5594,7 +5608,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>VSM</c:v>
+            <c:v>Replicated Basic VSM</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -5615,34 +5629,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>46.59</c:v>
+                  <c:v>48.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.05</c:v>
+                  <c:v>48.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.96</c:v>
+                  <c:v>52.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.94</c:v>
+                  <c:v>54.28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.25</c:v>
+                  <c:v>42.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.6</c:v>
+                  <c:v>47.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.52</c:v>
+                  <c:v>49.67</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.36</c:v>
+                  <c:v>42.43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.55</c:v>
+                  <c:v>44.88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39.58</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5658,7 +5672,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>VSM+Association</c:v>
+            <c:v>BLuAMIR</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -5679,34 +5693,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>51.77</c:v>
+                  <c:v>53.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.15</c:v>
+                  <c:v>50.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.85</c:v>
+                  <c:v>55.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.25</c:v>
+                  <c:v>58.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.15</c:v>
+                  <c:v>47.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.65</c:v>
+                  <c:v>50.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60.96</c:v>
+                  <c:v>54.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.86</c:v>
+                  <c:v>44.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61.86</c:v>
+                  <c:v>50.16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.05</c:v>
+                  <c:v>51.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6032,6 +6046,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Replicated Basic VSM</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -6051,34 +6068,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>56.97</c:v>
+                  <c:v>59.54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.96</c:v>
+                  <c:v>55.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.2</c:v>
+                  <c:v>62.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53.75</c:v>
+                  <c:v>65.459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.36</c:v>
+                  <c:v>53.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.84</c:v>
+                  <c:v>56.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.27</c:v>
+                  <c:v>61.26</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60.73</c:v>
+                  <c:v>51.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.86</c:v>
+                  <c:v>55.12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.34</c:v>
+                  <c:v>61.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6093,6 +6110,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>BLuAMIR</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -6112,34 +6132,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>60.06</c:v>
+                  <c:v>61.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.26</c:v>
+                  <c:v>60.26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.76</c:v>
+                  <c:v>64.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.56</c:v>
+                  <c:v>71.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62.16</c:v>
+                  <c:v>60.26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62.76</c:v>
+                  <c:v>62.87</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.069999999999993</c:v>
+                  <c:v>64.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.87</c:v>
+                  <c:v>52.77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.97</c:v>
+                  <c:v>58.63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.06</c:v>
+                  <c:v>62.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6466,7 +6486,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>VSM</c:v>
+            <c:v>Replicated Basic VSM</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -6490,31 +6510,31 @@
                   <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32</c:v>
+                  <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.38</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.4</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.38</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.39</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6530,7 +6550,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>VSM+Association</c:v>
+            <c:v>BLuAMIR</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -6554,31 +6574,31 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.35</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.39</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6905,7 +6925,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>VSM</c:v>
+            <c:v>Replicated Basic VSM</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -6926,31 +6946,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.32</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.35</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.38</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.36</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.26</c:v>
@@ -6969,7 +6989,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>VSM+Association</c:v>
+            <c:v>BLuAMIR</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -6990,34 +7010,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.36</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.44</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.43</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17591,11 +17611,1996 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F83317-48F7-4E56-962C-534D8440CDC7}">
+  <dimension ref="A8:B255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>1</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>1</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>0</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>0</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>0</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>0</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>0</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>0</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>0</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>1</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>0</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>0</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>0</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>1</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>0</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>0</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>1</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>0</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>0</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>0</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>0</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>0</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>0</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>1</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B122" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="B123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>0</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>0</v>
+      </c>
+      <c r="B125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>0</v>
+      </c>
+      <c r="B126" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>0</v>
+      </c>
+      <c r="B127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>0</v>
+      </c>
+      <c r="B128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>0</v>
+      </c>
+      <c r="B129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>1</v>
+      </c>
+      <c r="B132" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>0</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B134" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>0</v>
+      </c>
+      <c r="B135" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>0</v>
+      </c>
+      <c r="B136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>0</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>0</v>
+      </c>
+      <c r="B138" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>0</v>
+      </c>
+      <c r="B139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>0</v>
+      </c>
+      <c r="B140" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>0</v>
+      </c>
+      <c r="B141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B142" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>0</v>
+      </c>
+      <c r="B143" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>1</v>
+      </c>
+      <c r="B144" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>1</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>0</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>0</v>
+      </c>
+      <c r="B149" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>1</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>0</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>0</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>0</v>
+      </c>
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B154" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B155" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>0</v>
+      </c>
+      <c r="B156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>0</v>
+      </c>
+      <c r="B157" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B158" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>0</v>
+      </c>
+      <c r="B159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>0</v>
+      </c>
+      <c r="B160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>0</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B162" s="2">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>0</v>
+      </c>
+      <c r="B163" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>0</v>
+      </c>
+      <c r="B164" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B165" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>0</v>
+      </c>
+      <c r="B166" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>0</v>
+      </c>
+      <c r="B167" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>0</v>
+      </c>
+      <c r="B168" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>0</v>
+      </c>
+      <c r="B169" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>1</v>
+      </c>
+      <c r="B170" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>0</v>
+      </c>
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="B172" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>0</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>1</v>
+      </c>
+      <c r="B174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>0</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>0</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>0</v>
+      </c>
+      <c r="B177" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>0</v>
+      </c>
+      <c r="B179" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>0</v>
+      </c>
+      <c r="B180" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="B181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>0</v>
+      </c>
+      <c r="B182" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>0</v>
+      </c>
+      <c r="B184" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>0</v>
+      </c>
+      <c r="B185" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B186" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="B187" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>0</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>0</v>
+      </c>
+      <c r="B190" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>0</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>1</v>
+      </c>
+      <c r="B192" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>0</v>
+      </c>
+      <c r="B193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>0</v>
+      </c>
+      <c r="B194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>0</v>
+      </c>
+      <c r="B195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>0</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>0</v>
+      </c>
+      <c r="B198" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>0</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>1</v>
+      </c>
+      <c r="B200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>0</v>
+      </c>
+      <c r="B201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>0</v>
+      </c>
+      <c r="B202" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>0</v>
+      </c>
+      <c r="B203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>0</v>
+      </c>
+      <c r="B204" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>0</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>0</v>
+      </c>
+      <c r="B207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>0</v>
+      </c>
+      <c r="B208" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>0</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>0</v>
+      </c>
+      <c r="B210" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>0</v>
+      </c>
+      <c r="B211" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>0</v>
+      </c>
+      <c r="B212" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>0</v>
+      </c>
+      <c r="B213" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B214" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>1</v>
+      </c>
+      <c r="B215" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="B216" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>0</v>
+      </c>
+      <c r="B217" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B218" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>0</v>
+      </c>
+      <c r="B219" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B220" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>0</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>0</v>
+      </c>
+      <c r="B222" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>0</v>
+      </c>
+      <c r="B223" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>0</v>
+      </c>
+      <c r="B224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>0</v>
+      </c>
+      <c r="B225" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>0</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>0</v>
+      </c>
+      <c r="B227" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="B228" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>0</v>
+      </c>
+      <c r="B229" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>0</v>
+      </c>
+      <c r="B230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>0</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>0</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>1</v>
+      </c>
+      <c r="B233" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>0</v>
+      </c>
+      <c r="B234" s="2">
+        <v>0.14285714285714199</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>1</v>
+      </c>
+      <c r="B235" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>0</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>0</v>
+      </c>
+      <c r="B237" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>0</v>
+      </c>
+      <c r="B238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>1</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>0</v>
+      </c>
+      <c r="B240" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>0</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>0</v>
+      </c>
+      <c r="B242" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>0</v>
+      </c>
+      <c r="B243" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>0</v>
+      </c>
+      <c r="B244" s="2">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>0</v>
+      </c>
+      <c r="B245" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="B246" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>0</v>
+      </c>
+      <c r="B247" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>0</v>
+      </c>
+      <c r="B248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>0</v>
+      </c>
+      <c r="B249" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>0</v>
+      </c>
+      <c r="B250" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>0</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>0</v>
+      </c>
+      <c r="B253" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="B254" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F356A60-3F45-4868-AF35-7056B8115D0E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -17664,7 +19669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FF0A82-3F61-4AAC-B344-43DE20C2A319}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -17733,7 +19738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F044B0D-193E-4A11-A6D7-95837E18AF37}">
   <dimension ref="A1:D328"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -21685,8 +23690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D7EDA2-9168-421A-B182-ACA4DDBCF5EF}">
   <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:B82"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21701,82 +23706,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>23.67</v>
+        <v>23.03</v>
       </c>
       <c r="B2">
-        <v>28.4</v>
+        <v>26.38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>24.62</v>
+        <v>22.88</v>
       </c>
       <c r="B3">
-        <v>27.63</v>
+        <v>26.71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20.78</v>
+        <v>27.81</v>
       </c>
       <c r="B4">
-        <v>23.12</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>22.52</v>
+        <v>25.99</v>
       </c>
       <c r="B5">
-        <v>23.42</v>
+        <v>30.94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>27.33</v>
+        <v>22.37</v>
       </c>
       <c r="B6">
-        <v>29.73</v>
+        <v>24.1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>25</v>
+        <v>25.25</v>
       </c>
       <c r="B7">
-        <v>26.13</v>
+        <v>24.76</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>29.82</v>
+        <v>22.85</v>
       </c>
       <c r="B8">
-        <v>35.43</v>
+        <v>28.01</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>27.79</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="B9">
-        <v>36.64</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>29.13</v>
+        <v>23.76</v>
       </c>
       <c r="B10">
-        <v>29.13</v>
+        <v>25.41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>19.03</v>
+        <v>21.45</v>
       </c>
       <c r="B11">
-        <v>24.62</v>
+        <v>26.38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -21789,82 +23794,82 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>46.59</v>
+        <v>48.36</v>
       </c>
       <c r="B26">
-        <v>51.77</v>
+        <v>53.75</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>48.05</v>
+        <v>48.37</v>
       </c>
       <c r="B27">
-        <v>53.15</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>40.96</v>
+        <v>52.32</v>
       </c>
       <c r="B28">
-        <v>46.85</v>
+        <v>55.37</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>42.94</v>
+        <v>54.28</v>
       </c>
       <c r="B29">
-        <v>49.25</v>
+        <v>58.63</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>52.25</v>
+        <v>42.76</v>
       </c>
       <c r="B30">
-        <v>53.15</v>
+        <v>47.55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>50.6</v>
+        <v>47.84</v>
       </c>
       <c r="B31">
-        <v>51.65</v>
+        <v>50.81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>54.52</v>
+        <v>49.67</v>
       </c>
       <c r="B32">
-        <v>60.96</v>
+        <v>54.4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>51.36</v>
+        <v>42.43</v>
       </c>
       <c r="B33">
-        <v>58.86</v>
+        <v>44.95</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>52.55</v>
+        <v>44.88</v>
       </c>
       <c r="B34">
-        <v>61.86</v>
+        <v>50.16</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>39.58</v>
+        <v>50.5</v>
       </c>
       <c r="B35">
-        <v>51.05</v>
+        <v>51.14</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -21877,82 +23882,82 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>56.97</v>
+        <v>59.54</v>
       </c>
       <c r="B44">
-        <v>60.06</v>
+        <v>61.56</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>57.96</v>
+        <v>55.88</v>
       </c>
       <c r="B45">
-        <v>61.26</v>
+        <v>60.26</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>51.2</v>
+        <v>62.91</v>
       </c>
       <c r="B46">
-        <v>59.76</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>53.75</v>
+        <v>65.459999999999994</v>
       </c>
       <c r="B47">
-        <v>61.56</v>
+        <v>71.34</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>63.36</v>
+        <v>53.95</v>
       </c>
       <c r="B48">
-        <v>62.16</v>
+        <v>60.26</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>60.84</v>
+        <v>56.15</v>
       </c>
       <c r="B49">
-        <v>62.76</v>
+        <v>62.87</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>66.27</v>
+        <v>61.26</v>
       </c>
       <c r="B50">
-        <v>72.069999999999993</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>60.73</v>
+        <v>51.32</v>
       </c>
       <c r="B51">
-        <v>67.87</v>
+        <v>52.77</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>64.86</v>
+        <v>55.12</v>
       </c>
       <c r="B52">
-        <v>69.97</v>
+        <v>58.63</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51.34</v>
+        <v>61.06</v>
       </c>
       <c r="B53">
-        <v>63.06</v>
+        <v>62.54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -21973,74 +23978,74 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="B59">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="B60">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="B61">
-        <v>0.35</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="B62">
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
+        <v>0.35</v>
+      </c>
+      <c r="B63">
         <v>0.36</v>
-      </c>
-      <c r="B63">
-        <v>0.37</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="B64">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>0.38</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="B65">
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>0.39</v>
+        <v>0.33</v>
       </c>
       <c r="B66">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="B67">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -22053,75 +24058,75 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="B73">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="B74">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="L74" s="1"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
+        <v>0.27</v>
+      </c>
+      <c r="B75">
         <v>0.28999999999999998</v>
-      </c>
-      <c r="B75">
-        <v>0.32</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="B76">
-        <v>0.33</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>0.35</v>
+        <v>0.19</v>
       </c>
       <c r="B77">
-        <v>0.36</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="B78">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="B79">
-        <v>0.44</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>0.36</v>
+        <v>0.2</v>
       </c>
       <c r="B80">
-        <v>0.43</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="B81">
-        <v>0.4</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -22129,7 +24134,7 @@
         <v>0.26</v>
       </c>
       <c r="B82">
-        <v>0.34</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -22139,11 +24144,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E123218-0450-4DFB-952C-62A25076266B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A449C92-474F-4552-BD2A-B2F23F9A0C01}">
   <dimension ref="A1:B80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:B80"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22604,7 +24621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -22697,7 +24714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
